--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -83,10 +83,10 @@
     <t>0.0%</t>
   </si>
   <si>
+    <t>1.0%</t>
+  </si>
+  <si>
     <t>2.0%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
   </si>
   <si>
     <t>object_variable</t>
@@ -525,12 +525,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -600,31 +600,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.7142877473955862</v>
+        <v>0.6783525101020478</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.4285754947911724</v>
+        <v>0.3567050202040956</v>
       </c>
       <c r="Q4">
-        <v>0.7669778526376146</v>
+        <v>0.5754920420347929</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.5339557052752293</v>
+        <v>0.1509840840695857</v>
       </c>
       <c r="T4">
-        <v>0.562717258261934</v>
+        <v>0.7796336996336996</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.1254345165238679</v>
+        <v>0.5592673992673991</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.992459596169311</v>
+        <v>9.85252143345858</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.911673833321408</v>
+        <v>5.020494655354245</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-6.274865110431435</v>
+        <v>-9.351980052667205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.604558789979206</v>
+        <v>6.466083189783197</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.03790946964929</v>
+        <v>10.07544999943667</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.39190822336525</v>
+        <v>13.38880928291256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>26.59546627143684</v>
+        <v>29.12869353257992</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -870,12 +870,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -945,31 +945,31 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>0.9279445530275716</v>
+        <v>0.9502281521813574</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8558891060551432</v>
+        <v>0.9004563043627147</v>
       </c>
       <c r="Q4">
-        <v>0.9218302035550459</v>
+        <v>0.8755411255411255</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.8436604071100917</v>
+        <v>0.751082251082251</v>
       </c>
       <c r="T4">
-        <v>0.827001223990208</v>
+        <v>0.9302380952380953</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.6540024479804161</v>
+        <v>0.8604761904761906</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
@@ -1096,166 +1096,166 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>3.278688524590164</v>
+        <v>93.80530973451327</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>2.459016393442623</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="G14">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>94.26229508196721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>69.29824561403508</v>
+        <v>17.27272727272727</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>30.70175438596491</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>85.58558558558559</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>94.23076923076923</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>14.41441441441441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>1.869158878504673</v>
+        <v>84.46601941747574</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>14.95327102803738</v>
+        <v>15.53398058252427</v>
       </c>
       <c r="G17">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>83.17757009345794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>34.02061855670103</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>75.49019607843137</v>
       </c>
       <c r="G18">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>65.97938144329896</v>
+        <v>24.50980392156863</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>9.375</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>1.041666666666667</v>
+        <v>36.8421052631579</v>
       </c>
       <c r="G19">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>89.58333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1264,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>36.45833333333334</v>
+        <v>94.56521739130434</v>
       </c>
       <c r="G20">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>63.54166666666666</v>
+        <v>5.434782608695652</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1281,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1290,94 +1290,94 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>40.90909090909091</v>
+        <v>65.93406593406593</v>
       </c>
       <c r="G21">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>59.09090909090909</v>
+        <v>34.06593406593407</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>55.17241379310344</v>
+        <v>40.44943820224719</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>59.55056179775281</v>
       </c>
       <c r="G22">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>44.82758620689656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>77.08333333333333</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>22.91666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>94.11764705882354</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H24">
-        <v>5.882352941176471</v>
+        <v>65.11627906976744</v>
       </c>
     </row>
   </sheetData>
@@ -1449,12 +1449,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1524,31 +1524,31 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>0.5042790185772026</v>
+        <v>0.5022472775837271</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.008558037154405174</v>
+        <v>0.004494555167454228</v>
       </c>
       <c r="Q4">
-        <v>0.5185367689220184</v>
+        <v>0.5062682051529634</v>
       </c>
       <c r="R4">
         <v>-1</v>
       </c>
       <c r="S4">
-        <v>0.03707353784403677</v>
+        <v>0.01253641030592689</v>
       </c>
       <c r="T4">
-        <v>0.5047613219094247</v>
+        <v>0.5126129426129427</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.009522643818849374</v>
+        <v>0.02522588522588531</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.39724197275699</v>
+        <v>10.00404639041234</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.1858777925322</v>
+        <v>4.780183502172311</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-6.339814217859946</v>
+        <v>-4.678935533229469</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.856591508779847</v>
+        <v>6.677748398500486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.33264653225313</v>
+        <v>10.11121159172304</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.97290643427244</v>
+        <v>13.12318206170177</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>27.228291643894</v>
+        <v>24.14265030523879</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -80,13 +80,13 @@
 Type: nominal</t>
   </si>
   <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>2.0%</t>
   </si>
   <si>
     <t>object_variable</t>
@@ -520,17 +520,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -600,31 +600,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.6783525101020478</v>
+        <v>0.5607188170993559</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3567050202040956</v>
+        <v>0.1214376341987118</v>
       </c>
       <c r="Q4">
-        <v>0.5754920420347929</v>
+        <v>0.7831777282599498</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.1509840840695857</v>
+        <v>0.5663554565198996</v>
       </c>
       <c r="T4">
-        <v>0.7796336996336996</v>
+        <v>0.7087799791449426</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4">
-        <v>0.5592673992673991</v>
+        <v>0.4175599582898852</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.85252143345858</v>
+        <v>9.921850020943705</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.020494655354245</v>
+        <v>5.021344692993106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-9.351980052667205</v>
+        <v>-8.327466958658352</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.466083189783197</v>
+        <v>6.707646015967205</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.07544999943667</v>
+        <v>9.875561065351537</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.38880928291256</v>
+        <v>13.11182579371309</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>29.12869353257992</v>
+        <v>25.60214361037885</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,17 +865,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -945,31 +945,31 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>0.9502281521813574</v>
+        <v>0.8435263354805127</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9004563043627147</v>
+        <v>0.6870526709610254</v>
       </c>
       <c r="Q4">
-        <v>0.8755411255411255</v>
+        <v>0.9265036339190854</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.751082251082251</v>
+        <v>0.8530072678381708</v>
       </c>
       <c r="T4">
-        <v>0.9302380952380953</v>
+        <v>0.9376178890047502</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.8604761904761906</v>
+        <v>0.8752357780095004</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
@@ -1096,74 +1096,74 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D14">
-        <v>93.80530973451327</v>
+        <v>94.26229508196721</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>6.194690265486726</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>17.27272727272727</v>
+        <v>81.73076923076923</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>81.81818181818181</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0.9090909090909091</v>
+        <v>1.923076923076923</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>5.769230769230769</v>
+        <v>78.21782178217822</v>
       </c>
       <c r="E16">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>94.23076923076923</v>
+        <v>21.78217821782178</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1174,106 +1174,106 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>84.46601941747574</v>
+        <v>73.26732673267327</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>15.53398058252427</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>26.73267326732673</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
         <v>8</v>
       </c>
-      <c r="B18">
-        <v>102</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>75.49019607843137</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="H18">
-        <v>24.50980392156863</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>63.1578947368421</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>36.8421052631579</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="E20">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>94.56521739130434</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="H20">
-        <v>5.434782608695652</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1281,51 +1281,51 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>47.12643678160919</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>65.93406593406593</v>
+        <v>52.87356321839081</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>34.06593406593407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>40.44943820224719</v>
+        <v>85.05747126436782</v>
       </c>
       <c r="E22">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>59.55056179775281</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.79310344827586</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>96.42857142857143</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1362,22 +1362,22 @@
         <v>43</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>34.88372093023256</v>
+        <v>74.41860465116279</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>65.11627906976744</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1444,17 +1444,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1524,31 +1524,31 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>0.5022472775837271</v>
+        <v>0.5289218556835188</v>
       </c>
       <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>0.05784371136703759</v>
+      </c>
+      <c r="Q4">
+        <v>0.5292829003657424</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0.004494555167454228</v>
-      </c>
-      <c r="Q4">
-        <v>0.5062682051529634</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
       <c r="S4">
-        <v>0.01253641030592689</v>
+        <v>0.05856580073148487</v>
       </c>
       <c r="T4">
-        <v>0.5126129426129427</v>
+        <v>0.5185262426138338</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.02522588522588531</v>
+        <v>0.03705248522766769</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.00404639041234</v>
+        <v>10.25174086715385</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.780183502172311</v>
+        <v>4.870181571292106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-4.678935533229469</v>
+        <v>-5.792612025944411</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.677748398500486</v>
+        <v>7.029599045509817</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.11121159172304</v>
+        <v>10.1754324116143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.12318206170177</v>
+        <v>13.44883069720288</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>24.14265030523879</v>
+        <v>30.58932654640627</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -80,13 +80,13 @@
 Type: nominal</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
     <t>1.0%</t>
   </si>
   <si>
     <t>2.0%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
   </si>
   <si>
     <t>object_variable</t>
@@ -520,17 +520,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -600,31 +600,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.5607188170993559</v>
+        <v>0.7041217312852566</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.1214376341987118</v>
+        <v>0.4082434625705131</v>
       </c>
       <c r="Q4">
-        <v>0.7831777282599498</v>
+        <v>0.5497199333020351</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.5663554565198996</v>
+        <v>0.09943986660407012</v>
       </c>
       <c r="T4">
-        <v>0.7087799791449426</v>
+        <v>0.7741065466434253</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.4175599582898852</v>
+        <v>0.5482130932868505</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.921850020943705</v>
+        <v>9.869827596845477</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.021344692993106</v>
+        <v>4.951099843665786</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-8.327466958658352</v>
+        <v>-9.458561131516781</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.707646015967205</v>
+        <v>6.552760643691096</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.875561065351537</v>
+        <v>9.988824899049497</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.11182579371309</v>
+        <v>13.28321426209553</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>25.60214361037885</v>
+        <v>23.70176620263562</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,17 +865,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -945,31 +945,31 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>0.8435263354805127</v>
+        <v>0.9283940455097172</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6870526709610254</v>
+        <v>0.8567880910194343</v>
       </c>
       <c r="Q4">
-        <v>0.9265036339190854</v>
+        <v>0.8249987858380147</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.8530072678381708</v>
+        <v>0.6499975716760293</v>
       </c>
       <c r="T4">
-        <v>0.9376178890047502</v>
+        <v>0.9276348310221921</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.8752357780095004</v>
+        <v>0.8552696620443843</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
@@ -1096,74 +1096,74 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>94.26229508196721</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F14">
-        <v>2.459016393442623</v>
+        <v>86.32478632478633</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3.278688524590164</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>81.73076923076923</v>
+        <v>8.035714285714286</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F15">
-        <v>16.34615384615385</v>
+        <v>86.60714285714286</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>1.923076923076923</v>
+        <v>5.357142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <v>79</v>
       </c>
       <c r="D16">
-        <v>78.21782178217822</v>
+        <v>76.69902912621359</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>21.78217821782178</v>
+        <v>23.30097087378641</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1174,158 +1174,158 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>73.26732673267327</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>26.73267326732673</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>54.25531914893617</v>
       </c>
       <c r="G18">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H18">
-        <v>92</v>
+        <v>45.74468085106383</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>46.80851063829788</v>
       </c>
       <c r="G19">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>44.44444444444444</v>
+        <v>32.96703296703296</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>67.03296703296704</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>47.12643678160919</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>52.87356321839081</v>
+        <v>87.91208791208791</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.08791208791209</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>85.05747126436782</v>
+        <v>84.44444444444444</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>1.149425287356322</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>13.79310344827586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>3.571428571428572</v>
+        <v>94.73684210526316</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="G23">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>96.42857142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1359,25 +1359,25 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>25.58139534883721</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>74.41860465116279</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>82.35294117647059</v>
       </c>
     </row>
   </sheetData>
@@ -1444,17 +1444,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1524,31 +1524,31 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>0.5289218556835188</v>
+        <v>0.5009370741893029</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.05784371136703759</v>
+        <v>0.001874148378605778</v>
       </c>
       <c r="Q4">
-        <v>0.5292829003657424</v>
+        <v>0.5126353790613718</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S4">
-        <v>0.05856580073148487</v>
+        <v>0.0252707581227436</v>
       </c>
       <c r="T4">
-        <v>0.5185262426138338</v>
+        <v>0.5288220551378446</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.03705248522766769</v>
+        <v>0.05764411027568928</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.25174086715385</v>
+        <v>9.713528973077924</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.870181571292106</v>
+        <v>5.023536697732114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.792612025944411</v>
+        <v>-5.860648175735951</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>7.029599045509817</v>
+        <v>6.149397526742504</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.1754324116143</v>
+        <v>9.718042688703704</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.44883069720288</v>
+        <v>13.0453282926783</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>30.58932654640627</v>
+        <v>24.82810229050938</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -80,10 +80,10 @@
 Type: nominal</t>
   </si>
   <si>
+    <t>1.0%</t>
+  </si>
+  <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
   </si>
   <si>
     <t>2.0%</t>
@@ -520,12 +520,12 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -600,31 +600,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.7041217312852566</v>
+        <v>0.523252976771423</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.04650595354284603</v>
+      </c>
+      <c r="Q4">
+        <v>0.7361990430222111</v>
+      </c>
+      <c r="R4">
         <v>-1</v>
       </c>
-      <c r="P4">
-        <v>0.4082434625705131</v>
-      </c>
-      <c r="Q4">
-        <v>0.5497199333020351</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
-        <v>0.09943986660407012</v>
+        <v>0.4723980860444221</v>
       </c>
       <c r="T4">
-        <v>0.7741065466434253</v>
+        <v>0.7699568058175457</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.5482130932868505</v>
+        <v>0.5399136116350913</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.869827596845477</v>
+        <v>10.14140507033079</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.951099843665786</v>
+        <v>4.865859824874436</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-9.458561131516781</v>
+        <v>-5.030967384128449</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.552760643691096</v>
+        <v>6.862334569795242</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.988824899049497</v>
+        <v>10.03672408650753</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.28321426209553</v>
+        <v>13.40550741141245</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>23.70176620263562</v>
+        <v>24.810071406628</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,12 +865,12 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -945,31 +945,31 @@
         <v>23</v>
       </c>
       <c r="N4">
-        <v>0.9283940455097172</v>
+        <v>0.7995274578697379</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.8567880910194343</v>
+        <v>0.5990549157394758</v>
       </c>
       <c r="Q4">
-        <v>0.8249987858380147</v>
+        <v>0.9293497565766105</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.6499975716760293</v>
+        <v>0.8586995131532209</v>
       </c>
       <c r="T4">
-        <v>0.9276348310221921</v>
+        <v>0.9044738784548511</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.8552696620443843</v>
+        <v>0.8089477569097021</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>21</v>
@@ -1096,132 +1096,132 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>12.82051282051282</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="E14">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>86.32478632478633</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>0.8547008547008547</v>
+        <v>22.72727272727273</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>8.035714285714286</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="E15">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>86.60714285714286</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H15">
-        <v>5.357142857142857</v>
+        <v>52.38095238095238</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>76.69902912621359</v>
+        <v>88.46153846153847</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>23.30097087378641</v>
+        <v>4.807692307692307</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.730769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>26.21359223300971</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>73.78640776699029</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="E18">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F18">
-        <v>54.25531914893617</v>
+        <v>79.41176470588235</v>
       </c>
       <c r="G18">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>45.74468085106383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1229,19 +1229,19 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>53.19148936170212</v>
+        <v>68.68686868686869</v>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>46.80851063829788</v>
+        <v>31.31313131313131</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1252,132 +1252,132 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>32.96703296703296</v>
+        <v>54.73684210526316</v>
       </c>
       <c r="E20">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>67.03296703296704</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>44.21052631578947</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>75.78947368421052</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>87.91208791208791</v>
+        <v>23.15789473684211</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>12.08791208791209</v>
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D22">
-        <v>84.44444444444444</v>
+        <v>88.04347826086956</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>15.55555555555556</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.434782608695652</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>94.73684210526316</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>76.78571428571429</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>17.64705882352941</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="G24">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>82.35294117647059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1444,12 +1444,12 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1524,31 +1524,31 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>0.5009370741893029</v>
+        <v>0.5051646170863426</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.001874148378605778</v>
+        <v>0.01032923417268528</v>
       </c>
       <c r="Q4">
-        <v>0.5126353790613718</v>
+        <v>0.5351866942476859</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0.07037338849537189</v>
+      </c>
+      <c r="T4">
+        <v>0.5373575002050357</v>
+      </c>
+      <c r="U4">
         <v>-1</v>
       </c>
-      <c r="S4">
-        <v>0.0252707581227436</v>
-      </c>
-      <c r="T4">
-        <v>0.5288220551378446</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="V4">
-        <v>0.05764411027568928</v>
+        <v>0.0747150004100714</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.713528973077924</v>
+        <v>9.922723154936419</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.023536697732114</v>
+        <v>5.256607257872579</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.860648175735951</v>
+        <v>-5.976750734773796</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.149397526742504</v>
+        <v>6.327968455928713</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.718042688703704</v>
+        <v>9.95266012788553</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.0453282926783</v>
+        <v>13.42575066121818</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>24.82810229050938</v>
+        <v>27.28759865446521</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t>Column: numeric_variable
 Type: numeric</t>
@@ -67,6 +67,12 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KS_p_val</t>
+  </si>
+  <si>
     <t>rel_type</t>
   </si>
   <si>
@@ -80,10 +86,10 @@
 Type: nominal</t>
   </si>
   <si>
+    <t>0.0%</t>
+  </si>
+  <si>
     <t>1.0%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
   </si>
   <si>
     <t>2.0%</t>
@@ -471,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +511,14 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -520,28 +532,34 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -564,27 +582,45 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AA3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -597,43 +633,61 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>0.523252976771423</v>
+        <v>0.6672579313598301</v>
       </c>
       <c r="O4">
+        <v>0.2567283877815781</v>
+      </c>
+      <c r="P4">
+        <v>8.269514585912733E-13</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>0.3345158627196603</v>
+      </c>
+      <c r="S4">
+        <v>0.5114372523010396</v>
+      </c>
+      <c r="T4">
+        <v>0.05426762237393468</v>
+      </c>
+      <c r="U4">
+        <v>0.4453581064200309</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0.04650595354284603</v>
-      </c>
-      <c r="Q4">
-        <v>0.7361990430222111</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>0.4723980860444221</v>
-      </c>
-      <c r="T4">
-        <v>0.7699568058175457</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0.02287450460207929</v>
+      </c>
+      <c r="X4">
+        <v>0.7777352260348585</v>
+      </c>
+      <c r="Y4">
+        <v>0.4580610021786492</v>
+      </c>
+      <c r="Z4">
+        <v>3.679283183917694E-23</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="V4">
-        <v>0.5399136116350913</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="AB4">
+        <v>0.5554704520697169</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -646,7 +700,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -659,7 +713,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:30">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -672,7 +726,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -685,7 +739,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -698,7 +752,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -711,14 +765,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:30">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -726,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -734,20 +788,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.14140507033079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>9.954581544219382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.865859824874436</v>
+        <v>4.801950023643339</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -755,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.030967384128449</v>
+        <v>-4.941533206318891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -763,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.862334569795242</v>
+        <v>6.846806339010524</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -771,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.03672408650753</v>
+        <v>9.697867873727063</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -779,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.40550741141245</v>
+        <v>13.18698396940038</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -787,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>24.810071406628</v>
+        <v>27.35609961764146</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,10 +859,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="M1:AD1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -816,15 +870,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -850,8 +904,14 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -865,28 +925,34 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -909,27 +975,45 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AA3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -942,43 +1026,61 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>0.7995274578697379</v>
+        <v>0.9403703266894681</v>
       </c>
       <c r="O4">
+        <v>0.7497582262059205</v>
+      </c>
+      <c r="P4">
+        <v>9.208486488970159E-124</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0.5990549157394758</v>
-      </c>
-      <c r="Q4">
-        <v>0.9293497565766105</v>
-      </c>
       <c r="R4">
+        <v>0.8807406533789361</v>
+      </c>
+      <c r="S4">
+        <v>0.850376644396578</v>
+      </c>
+      <c r="T4">
+        <v>0.5396500878228453</v>
+      </c>
+      <c r="U4">
+        <v>7.563555949896398E-68</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>0.8586995131532209</v>
-      </c>
-      <c r="T4">
-        <v>0.9044738784548511</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0.700753288793156</v>
+      </c>
+      <c r="X4">
+        <v>0.9355851715686274</v>
+      </c>
+      <c r="Y4">
+        <v>0.7655228758169934</v>
+      </c>
+      <c r="Z4">
+        <v>7.498669057563746E-73</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="V4">
-        <v>0.8089477569097021</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="AB4">
+        <v>0.8711703431372548</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -991,7 +1093,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1004,7 +1106,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:30">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1017,7 +1119,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1030,7 +1132,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1043,7 +1145,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1056,7 +1158,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1068,128 +1170,128 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>110</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>77.27272727272727</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>22.72727272727273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>105</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>47.61904761904762</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>52.38095238095238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>88.46153846153847</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>4.807692307692307</v>
+        <v>91.17647058823529</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>6.730769230769231</v>
+        <v>7.84313725490196</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>26.21359223300971</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="E17">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>73.78640776699029</v>
+        <v>78.43137254901961</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1200,54 +1302,54 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>20.58823529411765</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>79.41176470588235</v>
+        <v>48.51485148514851</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>51.48514851485149</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>68.68686868686869</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="E19">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F19">
-        <v>31.31313131313131</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1255,51 +1357,51 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>54.73684210526316</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>1.052631578947368</v>
+        <v>65.93406593406593</v>
       </c>
       <c r="G20">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>44.21052631578947</v>
+        <v>34.06593406593407</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C21">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>75.78947368421052</v>
+        <v>68.53932584269663</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F21">
-        <v>23.15789473684211</v>
+        <v>31.46067415730337</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1307,87 +1409,87 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5.747126436781609</v>
+      </c>
+      <c r="E22">
         <v>81</v>
       </c>
-      <c r="D22">
-        <v>88.04347826086956</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
       <c r="F22">
-        <v>6.521739130434782</v>
+        <v>93.10344827586206</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>5.434782608695652</v>
+        <v>1.149425287356322</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>23.21428571428572</v>
+        <v>91.42857142857143</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="G23">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>76.78571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>92.30769230769231</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>78.43137254901961</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="M1:AD1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1395,15 +1497,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1429,8 +1531,14 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1444,28 +1552,34 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1488,27 +1602,45 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AA3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1521,43 +1653,61 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4">
-        <v>0.5051646170863426</v>
+        <v>0.5369265243542871</v>
       </c>
       <c r="O4">
+        <v>0.06993749262884774</v>
+      </c>
+      <c r="P4">
+        <v>0.2395047475340861</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.07385304870857423</v>
+      </c>
+      <c r="S4">
+        <v>0.5189985356098313</v>
+      </c>
+      <c r="T4">
+        <v>0.05463270579549651</v>
+      </c>
+      <c r="U4">
+        <v>0.4368766161209596</v>
+      </c>
+      <c r="V4">
         <v>-1</v>
       </c>
-      <c r="P4">
-        <v>0.01032923417268528</v>
-      </c>
-      <c r="Q4">
-        <v>0.5351866942476859</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0.07037338849537189</v>
-      </c>
-      <c r="T4">
-        <v>0.5373575002050357</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0.03799707121966267</v>
+      </c>
+      <c r="X4">
+        <v>0.5267565359477124</v>
+      </c>
+      <c r="Y4">
+        <v>0.07325708061002179</v>
+      </c>
+      <c r="Z4">
+        <v>0.5269810063947787</v>
+      </c>
+      <c r="AA4">
         <v>-1</v>
       </c>
-      <c r="V4">
-        <v>0.0747150004100714</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="AB4">
+        <v>0.05351307189542487</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1570,7 +1720,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1583,7 +1733,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:30">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1596,7 +1746,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1609,7 +1759,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1622,7 +1772,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1635,14 +1785,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:30">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1658,20 +1808,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.922723154936419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>10.02787893018205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.256607257872579</v>
+        <v>5.089129764657674</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1679,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.976750734773796</v>
+        <v>-5.246930555013265</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1687,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.327968455928713</v>
+        <v>6.458739083752885</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1695,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.95266012788553</v>
+        <v>9.880220366715234</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1703,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.42575066121818</v>
+        <v>13.68023558007062</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1711,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>27.28759865446521</v>
+        <v>29.20577798321041</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1729,10 +1879,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="M1:AD1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Column: numeric_variable
 Type: numeric</t>
@@ -55,13 +55,13 @@
     <t>max</t>
   </si>
   <si>
-    <t>Emptys</t>
+    <t>Empty</t>
   </si>
   <si>
     <t>Classification ability</t>
   </si>
   <si>
-    <t>Emptys part</t>
+    <t>Empty part</t>
   </si>
   <si>
     <t>AUC</t>
@@ -86,10 +86,10 @@
 Type: nominal</t>
   </si>
   <si>
+    <t>1.0%</t>
+  </si>
+  <si>
     <t>0.0%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
   </si>
   <si>
     <t>2.0%</t>
@@ -477,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -532,34 +535,37 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -588,39 +594,48 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -636,58 +651,67 @@
         <v>20</v>
       </c>
       <c r="N4">
-        <v>0.6672579313598301</v>
+        <v>0.5257397747769708</v>
       </c>
       <c r="O4">
-        <v>0.2567283877815781</v>
+        <v>0.06963876566080041</v>
       </c>
       <c r="P4">
-        <v>8.269514585912733E-13</v>
+        <v>0.175452817478935</v>
       </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.05147954955394152</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.6904617371027731</v>
+      </c>
+      <c r="U4">
+        <v>0.2939141662330655</v>
+      </c>
+      <c r="V4">
+        <v>2.041412080663211E-16</v>
+      </c>
+      <c r="W4">
         <v>-1</v>
       </c>
-      <c r="R4">
-        <v>0.3345158627196603</v>
-      </c>
-      <c r="S4">
-        <v>0.5114372523010396</v>
-      </c>
-      <c r="T4">
-        <v>0.05426762237393468</v>
-      </c>
-      <c r="U4">
-        <v>0.4453581064200309</v>
-      </c>
-      <c r="V4">
+      <c r="X4">
+        <v>0.3809234742055463</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.769316264278297</v>
+      </c>
+      <c r="AA4">
+        <v>0.4225726895119418</v>
+      </c>
+      <c r="AB4">
+        <v>1.963681450090185E-20</v>
+      </c>
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="W4">
-        <v>0.02287450460207929</v>
-      </c>
-      <c r="X4">
-        <v>0.7777352260348585</v>
-      </c>
-      <c r="Y4">
-        <v>0.4580610021786492</v>
-      </c>
-      <c r="Z4">
-        <v>3.679283183917694E-23</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0.5554704520697169</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.538632528556594</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -700,7 +724,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:33">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -713,7 +737,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -726,7 +750,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -739,7 +763,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -752,7 +776,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:33">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -765,14 +789,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:33">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -780,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -788,20 +812,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.954581544219382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>9.84522997191381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.801950023643339</v>
+        <v>4.854131809104241</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -809,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-4.941533206318891</v>
+        <v>-8.356813438257273</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -817,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.846806339010524</v>
+        <v>6.613522476454377</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -825,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.697867873727063</v>
+        <v>10.08631148184774</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -833,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.18698396940038</v>
+        <v>13.19598380333946</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -841,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>27.35609961764146</v>
+        <v>24.08771554110749</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -859,10 +883,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:AD1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="M1:AG1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,13 +894,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -910,8 +934,11 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -925,34 +952,37 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -981,39 +1011,48 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1029,58 +1068,67 @@
         <v>25</v>
       </c>
       <c r="N4">
-        <v>0.9403703266894681</v>
+        <v>0.8289722777425698</v>
       </c>
       <c r="O4">
-        <v>0.7497582262059205</v>
+        <v>0.5024293537431548</v>
       </c>
       <c r="P4">
-        <v>9.208486488970159E-124</v>
+        <v>5.475085464873365E-58</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.8807406533789361</v>
+        <v>0.6579445554851395</v>
       </c>
       <c r="S4">
-        <v>0.850376644396578</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.5396500878228453</v>
+        <v>0.9429453084349887</v>
       </c>
       <c r="U4">
-        <v>7.563555949896398E-68</v>
+        <v>0.7200285213235436</v>
       </c>
       <c r="V4">
+        <v>6.843549629406107E-110</v>
+      </c>
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="W4">
-        <v>0.700753288793156</v>
-      </c>
       <c r="X4">
-        <v>0.9355851715686274</v>
+        <v>0.8858906168699774</v>
       </c>
       <c r="Y4">
-        <v>0.7655228758169934</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.498669057563746E-73</v>
+        <v>0.9146222741433022</v>
       </c>
       <c r="AA4">
+        <v>0.6896417445482866</v>
+      </c>
+      <c r="AB4">
+        <v>7.923170854373133E-59</v>
+      </c>
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AB4">
-        <v>0.8711703431372548</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.8292445482866044</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1093,7 +1141,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:33">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1106,7 +1154,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1119,7 +1167,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1132,7 +1180,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1145,7 +1193,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:33">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1158,7 +1206,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1218,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:33">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1178,13 +1226,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -1196,82 +1244,82 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>117</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>82.05128205128206</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>17.94871794871795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>73</v>
+      </c>
+      <c r="D16">
+        <v>68.86792452830188</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <v>99</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="E15">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>102</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="E16">
-        <v>93</v>
-      </c>
       <c r="F16">
-        <v>91.17647058823529</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>7.84313725490196</v>
+        <v>30.18867924528302</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1279,19 +1327,19 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>21.56862745098039</v>
+        <v>70.87378640776699</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>78.43137254901961</v>
+        <v>29.12621359223301</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1302,132 +1350,132 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>86.5979381443299</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>48.51485148514851</v>
+        <v>12.37113402061856</v>
       </c>
       <c r="G18">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>51.48514851485149</v>
+        <v>1.030927835051546</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>4.347826086956522</v>
+        <v>51.64835164835165</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>91.30434782608695</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>4.347826086956522</v>
+        <v>48.35164835164835</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>65.93406593406593</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>34.06593406593407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>68.53932584269663</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>31.46067415730337</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>5.747126436781609</v>
+        <v>58.42696629213483</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>93.10344827586206</v>
+        <v>41.57303370786517</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1.149425287356322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1435,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>91.42857142857143</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>8.571428571428571</v>
+        <v>94.54545454545455</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1461,35 +1509,35 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>24.07407407407407</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>21.56862745098039</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>78.43137254901961</v>
+        <v>75.92592592592592</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="M1:AD1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="M1:AG1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1497,13 +1545,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1537,8 +1585,11 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1552,34 +1603,37 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1608,39 +1662,48 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1656,58 +1719,67 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>0.5369265243542871</v>
+        <v>0.5184029639740653</v>
       </c>
       <c r="O4">
-        <v>0.06993749262884774</v>
+        <v>0.0702562602577228</v>
       </c>
       <c r="P4">
-        <v>0.2395047475340861</v>
+        <v>0.1680870010272955</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.07385304870857423</v>
+        <v>0.03680592794813053</v>
       </c>
       <c r="S4">
-        <v>0.5189985356098313</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.05463270579549651</v>
+        <v>0.5138607851072441</v>
       </c>
       <c r="U4">
-        <v>0.4368766161209596</v>
+        <v>0.05116494189743892</v>
       </c>
       <c r="V4">
+        <v>0.6286513369396385</v>
+      </c>
+      <c r="W4">
         <v>-1</v>
       </c>
-      <c r="W4">
-        <v>0.03799707121966267</v>
-      </c>
       <c r="X4">
-        <v>0.5267565359477124</v>
+        <v>0.02772157021448818</v>
       </c>
       <c r="Y4">
-        <v>0.07325708061002179</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.5269810063947787</v>
+        <v>0.5134102414330217</v>
       </c>
       <c r="AA4">
+        <v>0.09839044652128759</v>
+      </c>
+      <c r="AB4">
+        <v>0.1728268989705562</v>
+      </c>
+      <c r="AC4">
         <v>-1</v>
       </c>
-      <c r="AB4">
-        <v>0.05351307189542487</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.02682048286604344</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1720,7 +1792,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:33">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1733,7 +1805,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1746,7 +1818,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1759,7 +1831,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1772,7 +1844,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:33">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1785,14 +1857,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:33">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1808,20 +1880,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.02787893018205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>10.03520740284441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.089129764657674</v>
+        <v>4.890427849651532</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1829,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.246930555013265</v>
+        <v>-7.884596804151581</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1837,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.458739083752885</v>
+        <v>6.731138149390612</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1845,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.880220366715234</v>
+        <v>10.08989045472373</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1853,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.68023558007062</v>
+        <v>13.50323761918959</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1861,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>29.20577798321041</v>
+        <v>27.0728829554078</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1879,10 +1951,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:AD1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="M1:AG1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_result/result_test.xlsx
+++ b/test_result/result_test.xlsx
@@ -10,13 +10,14 @@
     <sheet name="numeric_variable" sheetId="1" r:id="rId1"/>
     <sheet name="object_variable" sheetId="2" r:id="rId2"/>
     <sheet name="column with soo000oo000oo000oo0" sheetId="3" r:id="rId3"/>
+    <sheet name="col_with_emp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>Column: numeric_variable
 Type: numeric</t>
@@ -79,6 +80,15 @@
     <t>GINI</t>
   </si>
   <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Empty% in level</t>
+  </si>
+  <si>
+    <t>Empty% in all Empty</t>
+  </si>
+  <si>
     <t>numeric_variable</t>
   </si>
   <si>
@@ -103,6 +113,13 @@
   </si>
   <si>
     <t>column with soo000oo000oo000oo000oo long name</t>
+  </si>
+  <si>
+    <t>Column: col_with_emp
+Type: numeric</t>
+  </si>
+  <si>
+    <t>col_with_emp</t>
   </si>
 </sst>
 </file>
@@ -477,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +537,17 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -542,30 +568,39 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <v>2</v>
-      </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:42">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -594,48 +629,75 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AM3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -648,70 +710,97 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4">
-        <v>0.5257397747769708</v>
+        <v>0.5151886931344163</v>
       </c>
       <c r="O4">
-        <v>0.06963876566080041</v>
+        <v>0.06024766485089394</v>
       </c>
       <c r="P4">
-        <v>0.175452817478935</v>
+        <v>0.3231387497223792</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.05147954955394152</v>
+        <v>0.03037738626883257</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="T4">
-        <v>0.6904617371027731</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.2939141662330655</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.041412080663211E-16</v>
+        <v>0</v>
       </c>
       <c r="W4">
+        <v>0.6916966180981214</v>
+      </c>
+      <c r="X4">
+        <v>0.2957859205901799</v>
+      </c>
+      <c r="Y4">
+        <v>4.412458392712792E-16</v>
+      </c>
+      <c r="Z4">
         <v>-1</v>
       </c>
-      <c r="X4">
-        <v>0.3809234742055463</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.769316264278297</v>
-      </c>
       <c r="AA4">
-        <v>0.4225726895119418</v>
+        <v>0.3833932361962429</v>
       </c>
       <c r="AB4">
-        <v>1.963681450090185E-20</v>
+        <v>279</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.777910695344961</v>
+      </c>
+      <c r="AG4">
+        <v>0.4515316091266518</v>
+      </c>
+      <c r="AH4">
+        <v>8.705849996169642E-24</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AD4">
-        <v>0.538632528556594</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AJ4">
+        <v>0.5558213906899221</v>
+      </c>
+      <c r="AK4">
+        <v>147</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -724,7 +813,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:42">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -737,7 +826,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:42">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -750,7 +839,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:42">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -763,7 +852,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:42">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -776,7 +865,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:42">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -789,14 +878,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:42">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -804,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:42">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -812,20 +901,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:42">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.84522997191381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>10.08151236047185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.854131809104241</v>
+        <v>4.93930505820342</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -833,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-8.356813438257273</v>
+        <v>-8.138698222876592</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -841,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.613522476454377</v>
+        <v>6.920912118307226</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -849,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.08631148184774</v>
+        <v>9.909946574723396</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -857,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.19598380333946</v>
+        <v>13.53245618531595</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -865,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>24.08771554110749</v>
+        <v>23.46524140711349</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -883,10 +972,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:AG1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="M1:AP1"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="AF2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -894,15 +983,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AP24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -937,8 +1026,17 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -959,30 +1057,39 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <v>2</v>
-      </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:42">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1011,48 +1118,75 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AM3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1065,70 +1199,97 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.8289722777425698</v>
+        <v>0.8191138702131487</v>
       </c>
       <c r="O4">
-        <v>0.5024293537431548</v>
+        <v>0.4871914413309123</v>
       </c>
       <c r="P4">
-        <v>5.475085464873365E-58</v>
+        <v>4.179404256510439E-54</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.6579445554851395</v>
+        <v>0.6382277404262975</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="T4">
-        <v>0.9429453084349887</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.7200285213235436</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>6.843549629406107E-110</v>
+        <v>0</v>
       </c>
       <c r="W4">
+        <v>0.9329212215212841</v>
+      </c>
+      <c r="X4">
+        <v>0.7176213840792607</v>
+      </c>
+      <c r="Y4">
+        <v>2.372318379657219E-105</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="X4">
-        <v>0.8858906168699774</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.9146222741433022</v>
-      </c>
       <c r="AA4">
-        <v>0.6896417445482866</v>
+        <v>0.8658424430425682</v>
       </c>
       <c r="AB4">
-        <v>7.923170854373133E-59</v>
+        <v>279</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.9168799993619957</v>
+      </c>
+      <c r="AG4">
+        <v>0.6911341324337473</v>
+      </c>
+      <c r="AH4">
+        <v>4.426831279677821E-60</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AD4">
-        <v>0.8292445482866044</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AJ4">
+        <v>0.8337599987239914</v>
+      </c>
+      <c r="AK4">
+        <v>147</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1141,7 +1302,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:42">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1154,7 +1315,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:42">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1167,7 +1328,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:42">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1180,7 +1341,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:42">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1193,7 +1354,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:42">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1206,7 +1367,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1218,9 +1379,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:42">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1229,175 +1390,175 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>88.78504672897196</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4.672897196261682</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>117</v>
-      </c>
-      <c r="C14">
-        <v>96</v>
-      </c>
-      <c r="D14">
-        <v>82.05128205128206</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>21</v>
-      </c>
       <c r="H14">
-        <v>17.94871794871795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>6.542056074766355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>29.62962962962963</v>
+        <v>46.22641509433962</v>
       </c>
       <c r="E15">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>70.37037037037037</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>53.77358490566038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>68.86792452830188</v>
+        <v>56.19047619047619</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>0.9433962264150944</v>
+        <v>43.80952380952381</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>30.18867924528302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D17">
-        <v>70.87378640776699</v>
+        <v>85.57692307692308</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>29.12621359223301</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.46153846153846</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>86.5979381443299</v>
+        <v>67.96116504854369</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>12.37113402061856</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>1.030927835051546</v>
+        <v>32.03883495145631</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>51.64835164835165</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>7.070707070707071</v>
       </c>
       <c r="G19">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>48.35164835164835</v>
+        <v>2.02020202020202</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1405,19 +1566,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>5.555555555555555</v>
+        <v>20.43010752688172</v>
       </c>
       <c r="E20">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>94.44444444444444</v>
+        <v>79.56989247311827</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1428,48 +1589,48 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>93.33333333333333</v>
+        <v>29.34782608695652</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>1.111111111111111</v>
+        <v>70.65217391304348</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>58.42696629213483</v>
+        <v>70.65217391304348</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>41.57303370786517</v>
+        <v>29.34782608695652</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1483,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5.454545454545454</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23">
-        <v>94.54545454545455</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1509,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>24.07407407407407</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1524,20 +1685,20 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>75.92592592592592</v>
+        <v>75.55555555555556</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="M1:AG1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="M1:AP1"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="AF2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1545,15 +1706,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1588,8 +1749,17 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1610,30 +1780,39 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2">
-        <v>2</v>
-      </c>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:42">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1662,48 +1841,75 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AM3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1716,70 +1922,97 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>0.5184029639740653</v>
+        <v>0.5034802309793722</v>
       </c>
       <c r="O4">
-        <v>0.0702562602577228</v>
+        <v>0.03097446467422427</v>
       </c>
       <c r="P4">
-        <v>0.1680870010272955</v>
+        <v>0.9670906343736204</v>
       </c>
       <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>0.006960461958744446</v>
+      </c>
+      <c r="S4">
+        <v>574</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.511197609850914</v>
+      </c>
+      <c r="X4">
+        <v>0.03575778364378424</v>
+      </c>
+      <c r="Y4">
+        <v>0.9511826141636709</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>0.03680592794813053</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0.5138607851072441</v>
-      </c>
-      <c r="U4">
-        <v>0.05116494189743892</v>
-      </c>
-      <c r="V4">
-        <v>0.6286513369396385</v>
-      </c>
-      <c r="W4">
+      <c r="AA4">
+        <v>0.02239521970182801</v>
+      </c>
+      <c r="AB4">
+        <v>279</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.5111770382244341</v>
+      </c>
+      <c r="AG4">
+        <v>0.07018845052675227</v>
+      </c>
+      <c r="AH4">
+        <v>0.5455445059747768</v>
+      </c>
+      <c r="AI4">
         <v>-1</v>
       </c>
-      <c r="X4">
-        <v>0.02772157021448818</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.5134102414330217</v>
-      </c>
-      <c r="AA4">
-        <v>0.09839044652128759</v>
-      </c>
-      <c r="AB4">
-        <v>0.1728268989705562</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
-      </c>
-      <c r="AD4">
-        <v>0.02682048286604344</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AJ4">
+        <v>0.02235407644886811</v>
+      </c>
+      <c r="AK4">
+        <v>147</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1792,7 +2025,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:42">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1805,7 +2038,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:42">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1818,7 +2051,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:42">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1831,7 +2064,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:42">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1844,7 +2077,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:42">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1857,14 +2090,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:42">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:42">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1880,20 +2113,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:42">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.03520740284441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>9.99773190517589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.890427849651532</v>
+        <v>4.927868770751358</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1901,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-7.884596804151581</v>
+        <v>-4.960981941627997</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1909,7 +2142,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.731138149390612</v>
+        <v>6.861879091177532</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1917,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.08989045472373</v>
+        <v>10.14174084019309</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1925,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.50323761918959</v>
+        <v>13.32086986345046</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1933,7 +2166,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>27.0728829554078</v>
+        <v>29.01702501704729</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1951,10 +2184,499 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:AG1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="M1:AP1"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="AF2:AN2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AP22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>0.5165361242709309</v>
+      </c>
+      <c r="O4">
+        <v>0.06729381315016669</v>
+      </c>
+      <c r="P4">
+        <v>0.2313899169491086</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>0.03307224854186175</v>
+      </c>
+      <c r="S4">
+        <v>574</v>
+      </c>
+      <c r="T4">
+        <v>31</v>
+      </c>
+      <c r="U4">
+        <v>5.400696864111498</v>
+      </c>
+      <c r="V4">
+        <v>62</v>
+      </c>
+      <c r="W4">
+        <v>0.5050553683196918</v>
+      </c>
+      <c r="X4">
+        <v>0.04951415940823733</v>
+      </c>
+      <c r="Y4">
+        <v>0.7150880612742909</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0.01011073663938356</v>
+      </c>
+      <c r="AB4">
+        <v>279</v>
+      </c>
+      <c r="AC4">
+        <v>11</v>
+      </c>
+      <c r="AD4">
+        <v>3.942652329749104</v>
+      </c>
+      <c r="AE4">
+        <v>22</v>
+      </c>
+      <c r="AF4">
+        <v>0.5242218062787748</v>
+      </c>
+      <c r="AG4">
+        <v>0.1084370481420043</v>
+      </c>
+      <c r="AH4">
+        <v>0.1130245479286159</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0.04844361255754959</v>
+      </c>
+      <c r="AK4">
+        <v>147</v>
+      </c>
+      <c r="AL4">
+        <v>8</v>
+      </c>
+      <c r="AM4">
+        <v>5.442176870748299</v>
+      </c>
+      <c r="AN4">
+        <v>16</v>
+      </c>
+      <c r="AO4">
+        <v>50</v>
+      </c>
+      <c r="AP4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>10.06154795004879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>5.013039338785991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-5.329674420160238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>6.495168083818402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>10.02901688878678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>13.50605160996026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>25.42255335715731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="M1:AP1"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="AF2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
